--- a/Vizag_Hospitals.xlsx
+++ b/Vizag_Hospitals.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="195">
   <si>
     <t>Hospital Name</t>
   </si>
@@ -27,522 +27,354 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Care Hospitals</t>
+    <t>Mgr Hospitals</t>
+  </si>
+  <si>
+    <t>S K M L Nursing Home</t>
+  </si>
+  <si>
+    <t>Usha Hospital</t>
+  </si>
+  <si>
+    <t>Indus Hospitals</t>
+  </si>
+  <si>
+    <t>Harini Hospital</t>
+  </si>
+  <si>
+    <t>Tirumala Vijaya Hospital</t>
   </si>
   <si>
     <t>M B Multi Speciality Hospit..</t>
   </si>
   <si>
-    <t>Simhagiri Cosmetology</t>
-  </si>
-  <si>
-    <t>Prime Ortho &amp; Poly Health C..</t>
-  </si>
-  <si>
-    <t>Sri Visista Super Specialit..</t>
-  </si>
-  <si>
-    <t>Homeocare International Pvt..</t>
-  </si>
-  <si>
-    <t>Sai Spoorthy Hospital</t>
-  </si>
-  <si>
-    <t>Harini Hospital</t>
-  </si>
-  <si>
-    <t>Mgr Hospitals</t>
-  </si>
-  <si>
-    <t>Sarojini Devi Skin Hospital</t>
-  </si>
-  <si>
-    <t>Indus Hospitals</t>
-  </si>
-  <si>
-    <t>Tirumala Vijaya Hospital</t>
-  </si>
-  <si>
-    <t>S K M L Nursing Home</t>
-  </si>
-  <si>
-    <t>Krishna Maternity Nursing H..</t>
-  </si>
-  <si>
-    <t>Dr . M . Phanindranath Red..</t>
-  </si>
-  <si>
-    <t>Bhanu Eye Care Center</t>
-  </si>
-  <si>
-    <t>Aarif Nursing Home</t>
-  </si>
-  <si>
-    <t>Aashrita Skin Hair Laser Co..</t>
-  </si>
-  <si>
-    <t>Homeo Care Clinic</t>
-  </si>
-  <si>
-    <t>Janani Nursing Home</t>
-  </si>
-  <si>
     <t>My Health Diagnostics And C..</t>
   </si>
   <si>
-    <t>Apollo Hospitals</t>
-  </si>
-  <si>
     <t>Icon Krishi Hospitals</t>
   </si>
   <si>
-    <t>Seven Hills Hospital</t>
-  </si>
-  <si>
-    <t>Mahatma Gandhi Cancer Hospi..</t>
-  </si>
-  <si>
-    <t>Queens Nri Hospital</t>
-  </si>
-  <si>
-    <t>L V Prasad Eye Institute</t>
-  </si>
-  <si>
     <t>Omni Rk Super Speciality Ho..</t>
   </si>
   <si>
+    <t>Pradhama Hospital</t>
+  </si>
+  <si>
+    <t>R K Hospital</t>
+  </si>
+  <si>
+    <t>London I V F Centre</t>
+  </si>
+  <si>
+    <t>Vijetha Hospital</t>
+  </si>
+  <si>
+    <t>Padmaja Hospital</t>
+  </si>
+  <si>
+    <t>Amma Hospital</t>
+  </si>
+  <si>
+    <t>Sunrise Children Hospital</t>
+  </si>
+  <si>
+    <t>Ujhwal Hospitals</t>
+  </si>
+  <si>
+    <t>Prema Hospital</t>
+  </si>
+  <si>
+    <t>S R Hospital</t>
+  </si>
+  <si>
+    <t>Krishna Hospital</t>
+  </si>
+  <si>
+    <t>Padmasri Hospitals</t>
+  </si>
+  <si>
     <t>Visakha Eye Hospital</t>
   </si>
   <si>
-    <t>Pradhama Hospital</t>
-  </si>
-  <si>
-    <t>Vasan Eye Care Hospital</t>
-  </si>
-  <si>
-    <t>Lotus Hospitals For Women A..</t>
+    <t>Visakha E.N.T.Hospital</t>
+  </si>
+  <si>
+    <t>My Health Diagnostics</t>
+  </si>
+  <si>
+    <t>St Anns Jm Hospital</t>
+  </si>
+  <si>
+    <t>Anupama Surgical &amp; Children..</t>
+  </si>
+  <si>
+    <t>Lata Hospitals PVT LTD</t>
+  </si>
+  <si>
+    <t>Vivekananda Hospital</t>
+  </si>
+  <si>
+    <t>Balaji Medical Center</t>
+  </si>
+  <si>
+    <t>Dr. Mangamma Hospital</t>
+  </si>
+  <si>
+    <t>Samudra Hospitals</t>
+  </si>
+  <si>
+    <t>Aditya Multicare Hospital</t>
+  </si>
+  <si>
+    <t>Gayatri Vidyaposhak Hospita..</t>
+  </si>
+  <si>
+    <t>Sraddha Hospital</t>
+  </si>
+  <si>
+    <t>Dr. Lv Prasad Eye Hospital</t>
+  </si>
+  <si>
+    <t>Dr Rama Rao Hospital</t>
+  </si>
+  <si>
+    <t>American Hospital</t>
+  </si>
+  <si>
+    <t>Vaishnavi Hospital</t>
+  </si>
+  <si>
+    <t>M R Hospitals</t>
+  </si>
+  <si>
+    <t>Kanaka Mahalaxmi Pain And P..</t>
+  </si>
+  <si>
+    <t>Kanakadurga Hospitals Pvt.l..</t>
+  </si>
+  <si>
+    <t>Vidhya Diagnostic &amp; Clinics</t>
+  </si>
+  <si>
+    <t>Lakshmi Gayatri Hospital</t>
+  </si>
+  <si>
+    <t>Dr. Adams Hospital</t>
+  </si>
+  <si>
+    <t>Shreyas Hospital</t>
+  </si>
+  <si>
+    <t>Dr. Y. S. V Rajasekhar Redd..</t>
+  </si>
+  <si>
+    <t>Dr. L.loknadh Clinic</t>
+  </si>
+  <si>
+    <t>Raphah Hospital</t>
+  </si>
+  <si>
+    <t>Bharathi Hospital</t>
+  </si>
+  <si>
+    <t>S.j. Hospital</t>
+  </si>
+  <si>
+    <t>Cure and care hospital</t>
+  </si>
+  <si>
+    <t>Apollo Sindhoori</t>
+  </si>
+  <si>
+    <t>Kusuma Hospital</t>
+  </si>
+  <si>
+    <t>Krishna I V F Clinic</t>
+  </si>
+  <si>
+    <t>Tirumala Hospital</t>
+  </si>
+  <si>
+    <t>Vysakhi Diagnostics</t>
+  </si>
+  <si>
+    <t>Sanjivi Hospital</t>
+  </si>
+  <si>
+    <t>Sri Venkateswara Hospital</t>
+  </si>
+  <si>
+    <t>New Central Hospital</t>
+  </si>
+  <si>
+    <t>Sri SAI Ram Hospital</t>
+  </si>
+  <si>
+    <t>Sri Rama Multi Speciality D..</t>
+  </si>
+  <si>
+    <t>Pallavi Hospital</t>
+  </si>
+  <si>
+    <t>Geeta Hospital</t>
+  </si>
+  <si>
+    <t>SAI Harsha Hospital</t>
+  </si>
+  <si>
+    <t>Subhkari Multi Care Hospita..</t>
+  </si>
+  <si>
+    <t>B Geetha Clinic</t>
+  </si>
+  <si>
+    <t>Padmavathi Nursing Home</t>
+  </si>
+  <si>
+    <t>Dr. Rama Raju.g.a (Krishna ..</t>
+  </si>
+  <si>
+    <t>Latha Hospital Pvt Ltd</t>
+  </si>
+  <si>
+    <t>V.r. Hospital</t>
+  </si>
+  <si>
+    <t>Sri Seshapadma Hospital</t>
+  </si>
+  <si>
+    <t>Vijaya Hospital</t>
+  </si>
+  <si>
+    <t>Mother &amp; Child Hospital</t>
+  </si>
+  <si>
+    <t>Sri Vijayalakshmi Hospital(..</t>
   </si>
   <si>
     <t>Surya Hospital</t>
   </si>
   <si>
-    <t>Star Pinnacle Hospital</t>
-  </si>
-  <si>
-    <t>Dr Batras Healthcare</t>
-  </si>
-  <si>
-    <t>Gitam Dental Hospital</t>
-  </si>
-  <si>
-    <t>R K Hospital</t>
-  </si>
-  <si>
-    <t>Kalyani Hospital</t>
-  </si>
-  <si>
-    <t>London I V F Centre</t>
-  </si>
-  <si>
-    <t>King George Hospital</t>
-  </si>
-  <si>
-    <t>Q 1 Hospitals</t>
-  </si>
-  <si>
-    <t>Homibhabha Cancer Hospital ..</t>
-  </si>
-  <si>
-    <t>Star International Dental C..</t>
-  </si>
-  <si>
-    <t>Mycure Multispeciality Hosp..</t>
-  </si>
-  <si>
-    <t>Kala Hospitals Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Vijetha Hospital</t>
-  </si>
-  <si>
-    <t>Suraksha Dental Park</t>
-  </si>
-  <si>
-    <t>Apoorva Hospital</t>
-  </si>
-  <si>
-    <t>Vims Hospital</t>
-  </si>
-  <si>
-    <t>Gadam Dental Hospital &amp; Imp..</t>
-  </si>
-  <si>
-    <t>Padmaja Hospital</t>
-  </si>
-  <si>
-    <t>Amma Hospital</t>
-  </si>
-  <si>
-    <t>Government Ent Hospital</t>
-  </si>
-  <si>
-    <t>Abc Hospital</t>
-  </si>
-  <si>
-    <t>Vishakha Steel General Hosp..</t>
-  </si>
-  <si>
-    <t>Rama Hospitals</t>
-  </si>
-  <si>
-    <t>Ujhwal Hospitals</t>
-  </si>
-  <si>
-    <t>Sneha ENT Hospital</t>
-  </si>
-  <si>
-    <t>Dr. Cure Speciality Clinics</t>
-  </si>
-  <si>
-    <t>Sujatha Hospital</t>
-  </si>
-  <si>
-    <t>Amg Hospital</t>
-  </si>
-  <si>
-    <t>AMG Hospital</t>
-  </si>
-  <si>
-    <t>Government Hospital For Men..</t>
-  </si>
-  <si>
-    <t>Gks Rainbow Dental Superspe..</t>
-  </si>
-  <si>
-    <t>Prema Hospital</t>
-  </si>
-  <si>
-    <t>Doctors &amp; Doctors Plaza</t>
-  </si>
-  <si>
-    <t>Sahasra Dental Hospital</t>
-  </si>
-  <si>
-    <t>Positive Homeopathy</t>
-  </si>
-  <si>
-    <t>Simhadri Women &amp; Child Hosp..</t>
-  </si>
-  <si>
-    <t>Natural Ayurveda</t>
-  </si>
-  <si>
-    <t>Amulya Hospital</t>
-  </si>
-  <si>
-    <t>Apex Hospital</t>
-  </si>
-  <si>
-    <t>Suraksha Health Park Hospit..</t>
-  </si>
-  <si>
-    <t>Lotus Hospital</t>
-  </si>
-  <si>
-    <t>Mycure Hospitals</t>
-  </si>
-  <si>
-    <t>Lazarus Hospitals Ltd</t>
-  </si>
-  <si>
-    <t>St Anns Jubilee Memorial Ho..</t>
-  </si>
-  <si>
-    <t>S R Hospital</t>
-  </si>
-  <si>
-    <t>Krishna Hospital</t>
-  </si>
-  <si>
-    <t>Golden Jubilee Hospital</t>
-  </si>
-  <si>
-    <t>Padmasri Hospitals</t>
-  </si>
-  <si>
-    <t>Dr.raju Hair Transplantatio..</t>
-  </si>
-  <si>
-    <t>Aayushman Hospital</t>
-  </si>
-  <si>
-    <t>Diamond Dental</t>
-  </si>
-  <si>
-    <t>Divisional Railway Hospital</t>
-  </si>
-  <si>
-    <t>Baba Liver Gastro &amp; Gynaec ..</t>
-  </si>
-  <si>
-    <t>Santhigiri Ayurveda &amp; Siddh..</t>
-  </si>
-  <si>
-    <t>Visakha E.N.T.Hospital</t>
-  </si>
-  <si>
-    <t>Muddu Krishna Childrens Hos..</t>
-  </si>
-  <si>
-    <t>Kanaka Durga Nursing Home</t>
-  </si>
-  <si>
-    <t>My Health Diagnostics</t>
-  </si>
-  <si>
-    <t>Sagar Durga Eye Hospital</t>
-  </si>
-  <si>
-    <t>Vijay Super Speciality Dent..</t>
-  </si>
-  <si>
-    <t>Dr. P. Krishnam Raju</t>
+    <t>Devine Hospital</t>
+  </si>
+  <si>
+    <t>Rhea Hospital</t>
+  </si>
+  <si>
+    <t>Vizag Heart Centre</t>
+  </si>
+  <si>
+    <t>Sammadri Hospital</t>
+  </si>
+  <si>
+    <t>Srinivasa Clinic</t>
+  </si>
+  <si>
+    <t>Gopala Krishna Clinic</t>
+  </si>
+  <si>
+    <t>Sri Surya ENT Hospital</t>
+  </si>
+  <si>
+    <t>Venkateswara Hospital</t>
+  </si>
+  <si>
+    <t>Mother And Child Clinic</t>
+  </si>
+  <si>
+    <t>Dr Care Homeopathy</t>
+  </si>
+  <si>
+    <t>Kh Hospital</t>
+  </si>
+  <si>
+    <t>Sri Venkateswara Hospitals</t>
+  </si>
+  <si>
+    <t>Satya SAI Hospital</t>
+  </si>
+  <si>
+    <t>Sri Baba Childrens &amp; Genera..</t>
+  </si>
+  <si>
+    <t>Ss Towers</t>
+  </si>
+  <si>
+    <t>Metro Hospitals</t>
   </si>
   <si>
     <t>St. Josephs Hospital</t>
   </si>
   <si>
-    <t>A S Raja Complex, Wailter Main Raod, Maharanipeta, Visakhapatnam - 531173, Opp to Bethany School</t>
+    <t>Rama Krishna Hospital</t>
+  </si>
+  <si>
+    <t>Anand Nursing Homes</t>
+  </si>
+  <si>
+    <t>S Doneparthi</t>
+  </si>
+  <si>
+    <t>Sri Rama Clinic</t>
+  </si>
+  <si>
+    <t>Door No 8-4-32, Doctors Colony, Pedawaltair, Visakhapatnam - 530017, Near Visaka Eye Hospital</t>
+  </si>
+  <si>
+    <t>Door No 14-25-11/1, Zilla Parshad Road, Maharanipeta, Visakhapatnam - 530002, Near Indian Redcross Blood Bank, Beside Bharathi Hospital</t>
+  </si>
+  <si>
+    <t>House No 16-1-7, Collector Office Jn to Beach Down Road, Maharanipeta, Visakhapatnam - 530002, Near Collector Office Junction</t>
+  </si>
+  <si>
+    <t>Door No 18-10-6, Maharanipeta, Visakhapatnam - 530002, KGH Down</t>
+  </si>
+  <si>
+    <t>Door No 24-79-48/1, Gajuwaka, Visakhapatnam - 530026, Gajuwaka,</t>
+  </si>
+  <si>
+    <t>Doorno:1-68-21,Mig:10, Sector 2,Main Road, Mvp Colony, Visakhapatnam - 530017, Opposite Mahatama Gandhi Cancer Hospital</t>
   </si>
   <si>
     <t>Plot No 15 B, Health City, Brts Road, Arilova, Visakhapatnam - 530040, Near Visakha Dairy</t>
   </si>
   <si>
-    <t>9-2-18/1, Gajuwaka, Visakhapatnam - 530026, Beside Navatha Transport</t>
-  </si>
-  <si>
-    <t>508124/15,Flat No405 &amp; 504, Gvk Plaza, Complex Road, Seethammapeta, Visakhapatnam - 530016, Beside Central Bank</t>
-  </si>
-  <si>
-    <t>#47-11-18/8,GK TOWERS, Dwaraka Nagar Visakhapatnam, Visakhapatnam - 530016, OPP to Kalanikethan</t>
-  </si>
-  <si>
-    <t>Door No 47-9-35, 3rd Lane, Dwaraka Nagar Visakhapatnam, Visakhapatnam - 530016, Besides Diamond Park</t>
-  </si>
-  <si>
-    <t>Door No 24-79-48/1, Gajuwaka, Visakhapatnam - 530026, Gajuwaka,</t>
-  </si>
-  <si>
-    <t>Door No 8-4-32, Doctors Colony, Pedawaltair, Visakhapatnam - 530017, Near Visaka Eye Hospital</t>
-  </si>
-  <si>
-    <t>Door No 11-4-7/1, Beside Street Of Apollo Hospital, Waltair Main Road, Visakhapatnam - 530002, Opposite Lane Of Hotel Dasapalla Executive Court</t>
-  </si>
-  <si>
-    <t>Door No 18-10-6, Maharanipeta, Visakhapatnam - 530002, KGH Down</t>
-  </si>
-  <si>
-    <t>Doorno:1-68-21,Mig:10, Sector 2,Main Road, Mvp Colony, Visakhapatnam - 530017, Opposite Mahatama Gandhi Cancer Hospital</t>
-  </si>
-  <si>
-    <t>Door No 14-25-11/1, Zilla Parshad Road, Maharanipeta, Visakhapatnam - 530002, Near Indian Redcross Blood Bank, Beside Bharathi Hospital</t>
-  </si>
-  <si>
-    <t>Door No 43-5-53, Railway New Colony, Visakhapatnam - 530016, Kamalam Hospital Road, Behind Sri Kanya Theatre</t>
-  </si>
-  <si>
-    <t>M1 , Health City ,chinnagadili ,, Pinnacle Hospital, Arilova, Visakhapatnam - 530040, Health City,near Saibaba Temple</t>
-  </si>
-  <si>
-    <t>M1, Gajuwaka, Visakhapatnam - 530026, Beside TVs Show Room,Opp Celest Group House</t>
-  </si>
-  <si>
-    <t>Door No 10-36-8, Ram Nagar, Visakhapatnam - 530002, Opposite GVMC</t>
-  </si>
-  <si>
-    <t>8-12-34, Mainroad, Gajuwaka, Visakhapatnam - 530026, Opp MVR Mall</t>
-  </si>
-  <si>
-    <t>62-1-5/1, Mainroad Bus stop,Near Ganesh Temple, Sriharipuram, Visakhapatnam - 530011, Behind Sairam Parlour</t>
-  </si>
-  <si>
-    <t>Door No.6-1-8 1st Floor, Drivers Colony Sramika Nagar,Old Gajuwaka Highway, Gajuwaka, Visakhapatnam - 530026, Behind AVK College &amp;Dominos Pizza Shop</t>
-  </si>
-  <si>
     <t>10-1-133/4, 60feet Road ,Vantillu Hotel Road, Gajuwaka, Visakhapatnam - 530026, Beside Green Apple Hotel</t>
   </si>
   <si>
-    <t>Plot No 1, Door No 18-516/2/1, Arilova, Visakhapatnam - 530040, Survey No 68 P &amp; 76, Health City, Chinagadili</t>
-  </si>
-  <si>
     <t>Sheela Nagar, Visakhapatnam - 530012, Near Bharat Heavy Plate &amp; Vessels Ltd</t>
   </si>
   <si>
-    <t>Waltair Main Road, Ram Nagar, Visakhapatnam - 530002, Rockdale Layout, Near Ragavendra Swamy Temple</t>
-  </si>
-  <si>
-    <t>Plot No 1, Sector 7, Mvp Colony, Visakhapatnam - 530017, Near Rythu Bazar, Mvp Colony</t>
-  </si>
-  <si>
-    <t>Door No 50-53-14, Gurudwara Lane, Seethammadhara, Visakhapatnam - 530013, Near Apepdcl</t>
-  </si>
-  <si>
-    <t>House No 11-113/1, GMR Varalakshmi Campus, Visakhapatnam - 530004, Hanumanthwaka Junction</t>
-  </si>
-  <si>
-    <t>Waltair Main Road, Ram Nagar, Visakhapatnam - 530002, Opposite Daspalla Executive Court, Beside Seven Hills Hospital</t>
-  </si>
-  <si>
     <t>Door No 119/15b and 29, Waltair Main Road, Ram Nagar, Visakhapatnam - 530002, Opposite Lions Club</t>
   </si>
   <si>
-    <t>Door No 8-1-64, Pedawaltair, Visakhapatnam - 530017, Pedawaltair Junction</t>
-  </si>
-  <si>
     <t>Door No 1-1-83, Venkojipalem, Visakhapatnam - 530022, Near CMR Function Hall, Sector 6, MVP Colony</t>
   </si>
   <si>
-    <t>Door No 10-50-81, Waltair Main Road, Visakhapatnam - 530002, Near Daspalla Executive Court, Opposite Lazars Hospital</t>
-  </si>
-  <si>
-    <t>Door No: 10-59-9, Main Road, Siripuram, Visakhapatnam - 530003, Opposite Waltier Club, Behind Gothi Sons Building</t>
-  </si>
-  <si>
-    <t>Door No 15-14-9/1, Beach Road, Maharanipeta, Visakhapatnam - 530002, Near Collectorate Office, Krishna Nagar</t>
-  </si>
-  <si>
-    <t>Plot No 10,11,12, Arilova Main Road, Arilova, Visakhapatnam - 530040, Near Mudasarlova Park, Chinna Gadhili, Hanumanthavaka</t>
-  </si>
-  <si>
-    <t>VRC Complex, D No 47-15-10, 303, Second Floor, Waltair Station Approach Road, Dwaraka Nagar Visakhapatnam, Visakhapatnam - 530016</t>
-  </si>
-  <si>
-    <t>Rushikonda, Visakhapatnam - 530045, Near Gandhinagar Campus, Gandhi Nagar</t>
-  </si>
-  <si>
     <t>Door No 26-16-7, Chaitanya Nagar, Gajuwaka, Visakhapatnam - 530026, Chinaganthyada</t>
   </si>
   <si>
-    <t>Malkapuram Visakhapatnam, Visakhapatnam - 530011, Near Gandhigram Post Office</t>
-  </si>
-  <si>
     <t>Door No 18-1-66, Padmaja Plaza, KGH Down Road, Jagadamba Junction, Visakhapatnam - 530002, Opposite Indus Hospital</t>
   </si>
   <si>
-    <t>Door No 18-1-32 Ff-2, Chodimela Complex, Maharanipeta, Visakhapatnam - 530002, Opposite KGH OP Gate</t>
-  </si>
-  <si>
-    <t>Q1 Hospitals, Health City, Arilova, Visakhapatnam - 530040</t>
-  </si>
-  <si>
-    <t>Jagadamba Junction, Visakhapatnam - 530002</t>
-  </si>
-  <si>
-    <t>Plot No 212, NH 5, Aganampudi, Visakhapatnam - 530053, Near Varun Motors &amp; Apiic Plot</t>
-  </si>
-  <si>
-    <t>234/4 ,1st Floor, NH 16 Main Road, MVP Colony, Visakhapatnam - 530017, Near Isukathota Junction</t>
-  </si>
-  <si>
-    <t>Door No 15-2-9, Gokhale Road, Maharanipeta, Visakhapatnam - 530002, Opposite NBM Law College, Near Century Club, Zillaparishad</t>
-  </si>
-  <si>
-    <t>47-1-104, Dwaraka Nagar Visakhapatnam, Visakhapatnam - 530016, Beside Bvk College Lane</t>
-  </si>
-  <si>
     <t>18-1-15 &amp; 16, Maharanipeta, Jagadamba Junction, Visakhapatnam - 530002, Kgs Down Road</t>
   </si>
   <si>
-    <t>1-83-26, Mig -55, MVP Main Road, MVP Colony, Visakhapatnam - 530017, Beside Punjab National Bank Mvp Main Road</t>
-  </si>
-  <si>
-    <t>Door No 50-17-62, Dwaraka Nagar Visakhapatnam, Visakhapatnam - 530016, Seethammapet Junction, Rajendra Nagar</t>
-  </si>
-  <si>
-    <t>Main Road, Govt. Dairy Farm, Visakhapatnam - 530040, Near Hanumanthavaka, LV Prasad Hospital</t>
-  </si>
-  <si>
-    <t>1st Floor, Rednam Plaza, 2nd Lane, Dwaraka Nagar Visakhapatnam, Visakhapatnam - 530016, Opposite Pollocks School</t>
-  </si>
-  <si>
     <t>Door No 7-15-12, Gajuwaka, Visakhapatnam - 530026, Behinde Adhithya Junior College, Old Gajuwaka Junction</t>
   </si>
   <si>
     <t>Door No 54-7-4,Sector 1, MVP Colony, Visakhapatnam - 530017, Opposite Sai Baba Temple, Beside Nh 5 Near Venkojipalem Petr</t>
   </si>
   <si>
-    <t>Door No 16-1-13, Maharanipeta, Visakhapatnam - 530002, Opposite Naval Costal Battery</t>
-  </si>
-  <si>
-    <t>Visakhapatnam Steel Project, Visakhapatnam - 530031, Steel Plant Near</t>
-  </si>
-  <si>
-    <t>Door No 50-50-32/2, Gurudwara Junction, Visakhapatnam - 530013, Behind Gurudwara, Balayya Sastry Layout</t>
+    <t>36, 62136, Old Gajuwaka, Srharipuram, Service Road, Visakhapatnam - 530011</t>
   </si>
   <si>
     <t>Door No 6-127/12, M S R Layout, Madhurawada, Visakhapatnam - 530041, Pollock School</t>
   </si>
   <si>
-    <t>Door No 8-13-6, Main Road, Gajuwaka, Visakhapatnam - 530026, Beside Titan Showroom, Opposite 38 Bus Stop</t>
-  </si>
-  <si>
-    <t>House No 1-50-/35, Svs Singhanna Plaza,Car Sheed Junction,Pm Palem, Madhurawada, Visakhapatnam - 530041, Above Dominos Pizza</t>
-  </si>
-  <si>
-    <t>National Highway 5 Road, Gajuwaka, Visakhapatnam - 530026, Opposite Sbt Hotel</t>
-  </si>
-  <si>
-    <t>51-1-4, Seethammadhara, Visakhapatnam - 530013, Beside Eenadu</t>
-  </si>
-  <si>
-    <t>House No 51-2-4, Seethammadhara, Visakhapatnam - 530013, Opposite MRO Office Road</t>
-  </si>
-  <si>
-    <t>III Town Police Station, China Waltiar, Visakhapatnam - 530003, Near China Waltair Junction, Near Andhra University,Opposite Mental Hospital</t>
-  </si>
-  <si>
-    <t>Madhurawada, Visakhapatnam - 530041, Opposite Jatara</t>
-  </si>
-  <si>
     <t>Door No 9-1-227, CBM Compound Road, Madhinapalem Road, Cbm Compound, Visakhapatnam - 530003, Rama Talkies Junctiom</t>
   </si>
   <si>
-    <t>Door No 18-1-35, Maharanipeta, Visakhapatnam - 530002, Opposite Kgh Gate</t>
-  </si>
-  <si>
-    <t>Court Road, Narsipatnam, Visakhapatnam - 531116</t>
-  </si>
-  <si>
-    <t>Door No 50-81-36/1 , Sree Balaji Chambers /, Seethammapeta, Visakhapatnam - 530013, Opposite 38 Bus Stop, Gurudwara Junction</t>
-  </si>
-  <si>
-    <t>18-177, Roopavathi Complex, Prahladapuram Junction, Simhachalam Road, Prahladapuram, Visakhapatnam - 530027</t>
-  </si>
-  <si>
-    <t>Hig 200, Mithilapuri Vuda Colony Road, Madhurawada, Visakhapatnam - 530041, Opp. Karur Vysya Bank</t>
-  </si>
-  <si>
-    <t>Door No 14-1-3/1, Nowroji Road, Visakhapatnam - 530002, Near More</t>
-  </si>
-  <si>
-    <t>Door No 16-1-5, Coastal Battrey Road, Maharanipeta, Visakhapatnam - 530002, Near Collectorate Office</t>
-  </si>
-  <si>
-    <t>58-1-429, Nad Visakhapatnam, Visakhapatnam - 530009, Opp Subramanya Swamy Temple</t>
-  </si>
-  <si>
-    <t>Door No 6-62/2, Main Road, Gopalapatnam, Visakhapatnam - 530027, Near Simhachalam</t>
-  </si>
-  <si>
-    <t>1813, Kgh Down Road Kgh Down Road, Visakhapatnam - 530002, Beside Lepakshi Handicrafts,Beside Lepakshi Handicrafts</t>
-  </si>
-  <si>
-    <t>Waltair Main Road, Visakhapatnam - 530002, Opposite Vasan Eye Care Hospital</t>
-  </si>
-  <si>
-    <t>Sriharipuram, Visakhapatnam - 530011, Near Jawahar Nagar, Malkapuram</t>
-  </si>
-  <si>
     <t>Gopalapatnam, Visakhapatnam - 530027, Opposite Rythu Bazar</t>
   </si>
   <si>
@@ -552,64 +384,226 @@
     <t>Plot No 49-48-16/5, Akkayyapalem, Visakhapatnam - 530016, Near Ngo Colony</t>
   </si>
   <si>
-    <t>GF:101, J.R Nagar, Rd No:3,GBR GRAND APARTMENTS, Venkojipalem, Visakhapatnam - 530022, Near Hanuman Temple</t>
-  </si>
-  <si>
-    <t>Krishnagar, Port Officers Quarters, Maharanipeta, Visakhapatnam - 530002</t>
-  </si>
-  <si>
-    <t>Mukunda Suvasa Apartments , M2, 3rd Line, Dwaraka Nagar Visakhapatnam, Visakhapatnam - 530016, Near Maharaja Co Opertive Bank</t>
-  </si>
-  <si>
-    <t>Station Road, Drm Office, Mahaarajupeta, Dondaparthy, Visakhapatnam - 530016</t>
-  </si>
-  <si>
     <t>Door No 8-2-27, Gajuwaka, Visakhapatnam - 530026, Opposite Panthulu Gari Meda</t>
   </si>
   <si>
-    <t>Door No 15-14-2, Krishna Nagar, Krishna Nagar, Maharanipeta, Visakhapatnam - 530002, Near Collector Office Junction, Surya Hospital Line</t>
-  </si>
-  <si>
-    <t>50-121-59/2, Balaji Hills,, Balayya Sastri Layout, Visakhapatnam - 530013, Opposite Road Of Bank Of India Atm</t>
-  </si>
-  <si>
     <t>Cbm Compound, Rama Talkies Road, Asilmetta, Visakhapatnam - 530003</t>
   </si>
   <si>
-    <t>Door No 10-2-9, Main Road, Gajuwaka, Visakhapatnam - 530026, Behind Mohan Sweets, Old Gajuwaka Junction</t>
-  </si>
-  <si>
-    <t>House No 15-6-10a, Kanka Durga Temple Road, Maharanipeta, Visakhapatnam - 530002, Near Zp Junction</t>
-  </si>
-  <si>
     <t>10-1-133/4, 60ft Road, Gajuwaka, Visakhapatnam - 530026, Beside Green Apple Hotel</t>
   </si>
   <si>
-    <t>Maharanipeta, Visakhapatnam - 530002, Near Zilla Parishad,</t>
-  </si>
-  <si>
-    <t>Krishna Nagar, Visakhapatnam - 530002, Krishna Nagar</t>
-  </si>
-  <si>
-    <t>House No 43-9-201, Slv Arcade, Railway New Colony, Visakhapatnam - 530016, Opposite Srikanya Theatre,</t>
-  </si>
-  <si>
-    <t>Rama Talkies Road, Cbm Compound, Visakhapatnam - 530003, Near Rama Talkies Junction, Opposite Subham Prema Hospital</t>
-  </si>
-  <si>
-    <t>45-1-18/36 Sri Krishna Multispeciality Clinics, HB Colony 80 Ft Main Road, Venkojipalem, Visakhapatnam - 530022, Behind Venkojipalem Bus Stop</t>
-  </si>
-  <si>
-    <t>14-38-3, Maharanipeta, Visakhapatnam - 530002, Zilla Parishad Jn</t>
-  </si>
-  <si>
-    <t>10-10-93, Main Road, Gajuwaka, Visakhapatnam - 530026, Near Cmr Shopping Mall</t>
-  </si>
-  <si>
-    <t>Waltair Main Road, Visakhapatnam - 530002</t>
-  </si>
-  <si>
-    <t>B Port Quarters, Doctors Quarters Road, Akkayyapalem, Visakhapatnam - 530016</t>
+    <t>Malkapuram Visakhapatnam, Visakhapatnam - 530011</t>
+  </si>
+  <si>
+    <t># 47-9-21,, 3 Rd Lane,, Dwaraka Nagar, Visakhapatnam - 530016</t>
+  </si>
+  <si>
+    <t>Gajuwaka, Visakhapatnam - 530026, Gajuwaka</t>
+  </si>
+  <si>
+    <t>49-9-24, Akkayyapalem Road, Akkayyapalem, Visakhapatnam - 530016, Near Nt School</t>
+  </si>
+  <si>
+    <t>Muralinagar, Madhavadhara, Madhavadara, Visakhapatnam - 530007</t>
+  </si>
+  <si>
+    <t>House No 17-1-17, Maharanipeta, Visakhapatnam - 530002, Opposite to Kgh Out Gate</t>
+  </si>
+  <si>
+    <t>Door No 18-1-25, Maharanipeta, Visakhapatnam - 530002, Beside Andhra Bank, Below Kgh</t>
+  </si>
+  <si>
+    <t>Door No 18-1-33, Maharanipeta, Visakhapatnam - 530002, Opposite KGH O P Gate</t>
+  </si>
+  <si>
+    <t>Kommadi, Visakhapatnam - 530048, Opposite Toyota Showroom, Marrikalvalsa</t>
+  </si>
+  <si>
+    <t>Door No 14-37-45, Maharanipeta, Visakhapatnam - 530002, Near Collector Office Junction</t>
+  </si>
+  <si>
+    <t>Hanumanthavaka, Visakhapatnam - 530040</t>
+  </si>
+  <si>
+    <t>Kancharapalem, Visakhapatnam - 530008, Near Kancharapalem Mettu</t>
+  </si>
+  <si>
+    <t>5 Road Junction, Narsipatnam, Visakhapatnam - 531116</t>
+  </si>
+  <si>
+    <t>2nd Left Lane, Beach Road, Maharanipeta, Visakhapatnam - 530002, Near Collectorate</t>
+  </si>
+  <si>
+    <t>Town Kotha Road, Poorna Market, Visakhapatnam - 530001, Beside Corporate Bank</t>
+  </si>
+  <si>
+    <t>D.no.15-6-10a,, Zilla Parishad, Zilla Parishad, Visakhapatnam - 530002, Near Zilla Parishad Jn.,</t>
+  </si>
+  <si>
+    <t>M 1,, Opp Simhagiri Hospital, Gajuwaka, Visakhapatnam - 530026, Simhagiri Hospital</t>
+  </si>
+  <si>
+    <t>Door No 45-40-29, Main Road, Akkayyapalem, Visakhapatnam - 530016, Beside SPences School, Near Sai Baba Temple</t>
+  </si>
+  <si>
+    <t>1-82/7/1, Traffic Police Station Road, Pothimallayapalem, Visakhapatnam - 530041, Beside International Cricket Stadium</t>
+  </si>
+  <si>
+    <t>Seethammadhara, Visakhapatnam - 530013, Seethammadhara Junction, Beside Alluramalinga Statue</t>
+  </si>
+  <si>
+    <t>#, rama hospital, TPT Colony, Visakhapatnam - 530013, padmavathi nilayam</t>
+  </si>
+  <si>
+    <t>114-A, Venkinaidu Peta, Narsipatnam, Visakhapatnam - 531116, Near ICICI Bank</t>
+  </si>
+  <si>
+    <t>Doctors &amp;Doctors Plaza, Opp.k.g.h.o.p.gate, Zilla Parishad, Visakhapatnam - 530002</t>
+  </si>
+  <si>
+    <t>Door No 50-2-1, Nakkavanipalem, Visakhapatnam - 530013, Gandhinagar, Near Old Tb Hospital, Near Tech Mahindra Towers Junction</t>
+  </si>
+  <si>
+    <t>1, Maharanipeta, Zilla Parishad, Visakhapatnam - 530003, 14-24-1 Men's Hostal Road Near Zilla Parishad MA</t>
+  </si>
+  <si>
+    <t>#10-4-98,, Sriram Nagar,, Gajuwaka, Visakhapatnam - 530026, Krishna Mandiram Backside, Old Gajuwaka,</t>
+  </si>
+  <si>
+    <t>#, Main road, Butchi Raju Palem, Visakhapatnam - 530027, Beside Gopalapatnam police station</t>
+  </si>
+  <si>
+    <t>Maharanipeta, Visakhapatnam - 530002, Anthony Nagar,</t>
+  </si>
+  <si>
+    <t>48-6-29, 1st Floor, Ramaltalkies Road, Srinagar, Visakhapatnam - 530016</t>
+  </si>
+  <si>
+    <t>Gajuwaka, Visakhapatnam - 530026</t>
+  </si>
+  <si>
+    <t>Maharanipeta Zilla Parishad, Maharanipeta, Visakhapatnam - 530002, Krishna Nagar</t>
+  </si>
+  <si>
+    <t>Tagarpuvalasa Road, Pendurty, Visakhapatnam - 531173, Opposite Nataraj Theatre</t>
+  </si>
+  <si>
+    <t>18-1-30, Aditya Complex, Opp to Kgh OP Road, Maharanipeta, Visakhapatnam - 530002</t>
+  </si>
+  <si>
+    <t># 1-51-1/3, Sector - 1, MVP Colony, Visakhapatnam - 530017</t>
+  </si>
+  <si>
+    <t>151/1, Narsipatnam Main Road,, Narsipatnam, Visakhapatnam - 531116, Near Bus Stop</t>
+  </si>
+  <si>
+    <t>47-10-16, 2nd Lane, Dwaraka Nagar Visakhapatnam, Visakhapatnam - 530016, Opp Fence School</t>
+  </si>
+  <si>
+    <t>Seethammadhara, Visakhapatnam - 530013</t>
+  </si>
+  <si>
+    <t>Kalyanarama Complex, Beach Road, Collectrate Junction, Visakhapatnam - 530003, Opposite Sagar Lodge Collectorate Junction</t>
+  </si>
+  <si>
+    <t># 15-2-9,, Maharanipeta, Visakhapatnam - 530002</t>
+  </si>
+  <si>
+    <t>Bc Road, Gajuwaka, Visakhapatnam - 530026, Opposite Traffic Police Station, Kakatiya Junction, New Gajuwaka</t>
+  </si>
+  <si>
+    <t>N H -5,, Marripalem, Visakhapatnam - 530018, Opp. R &amp; B Guest House,</t>
+  </si>
+  <si>
+    <t>Dn -17-1-29, Raos Mansions, Visakhapatnam - 530012, Opp Kgh Clock Tower</t>
+  </si>
+  <si>
+    <t>D No 52-10-17, Resapuvanipalem, Visakhapatnam - 530013, Opp Times Of India Office</t>
+  </si>
+  <si>
+    <t>C/O 14 37 29 2, Krishna IVF Clinic, Maharanipeta, Visakhapatnam - 530002</t>
+  </si>
+  <si>
+    <t>Daspalla Hills, Visakhapatnam - 530003, Waltair Uplands,</t>
+  </si>
+  <si>
+    <t>Main Road,, Pendurty, Visakhapatnam - 531173</t>
+  </si>
+  <si>
+    <t>BCT Hospital Building, Vorugantivari Street, Yelamanchali, Visakhapatnam - 531055</t>
+  </si>
+  <si>
+    <t>Yelamanchali, Visakhapatnam - 531055, Opp.venkateswara Theatre, Main Raod,</t>
+  </si>
+  <si>
+    <t>Subbavaram, Visakhapatnam - 531035, Chodavaram Road,</t>
+  </si>
+  <si>
+    <t>Neelam Towers,, Main Road,, Chodavaram, Visakhapatnam - 531036, Gqandhi Gramam,</t>
+  </si>
+  <si>
+    <t>Santhi Nagar,, Chodavaram, Visakhapatnam - 531036, Near Degree College,</t>
+  </si>
+  <si>
+    <t>Anthony Nagar, Maharanipeta, Visakhapatnam - 530002</t>
+  </si>
+  <si>
+    <t>Visakhapatnam Ho, Visakhapatnam - 530001</t>
+  </si>
+  <si>
+    <t>18-1-3, Maharanipeta, Visakhapatnam - 530002, Jagadamba Junction</t>
+  </si>
+  <si>
+    <t>15-12-1, Krishna Nagar, Krishna Nagar, Visakhapatnam - 530002</t>
+  </si>
+  <si>
+    <t>12,Sriram Complex, Main Road, Narsipatnam, Visakhapatnam - 531116, Opp.Andhra Bank,</t>
+  </si>
+  <si>
+    <t>25-2, Kr Pet, Narsipatnam, Visakhapatnam - 531116, Opp Satyaveni Lodge</t>
+  </si>
+  <si>
+    <t>Gajuwaka, Visakhapatnam - 530026, Opp. Lakshmikanth Theatre,</t>
+  </si>
+  <si>
+    <t>Bhavanam Street, Yelamanchali, Visakhapatnam - 531055, Near Post Office</t>
+  </si>
+  <si>
+    <t>43-9-163,SS TOWERS, Dondaparthy Main Road, Dondaparthy, Visakhapatnam - 530016, Opp.Tata Motors</t>
+  </si>
+  <si>
+    <t>Visakhapatnam - 530020</t>
+  </si>
+  <si>
+    <t>Chodavaram, Visakhapatnam - 531036</t>
+  </si>
+  <si>
+    <t>112-B,Turakabadi, Kotha Veedi,, Narsipatnam, Visakhapatnam - 531116, Near SBI</t>
+  </si>
+  <si>
+    <t>Narsipatnam, Visakhapatnam - 531116, Sarada Nagar,</t>
+  </si>
+  <si>
+    <t>581450, Mig49 Vuda Layout, Marripalem, Visakhapatnam - 530009</t>
+  </si>
+  <si>
+    <t>Nad Kotha Road, Visakhapatnam - 530027, Above Ap. Bank, Butchi Raju Palem Nad. Kotha Road,</t>
+  </si>
+  <si>
+    <t>Krishna Nagar, Visakhapatnam - 530002</t>
+  </si>
+  <si>
+    <t>Main Road,, Bheemunipatnam, Visakhapatnam - 531163, Thagarapuvalasa,</t>
+  </si>
+  <si>
+    <t>45/2, Narsipatnam Main Road, Narsipatnam, Visakhapatnam - 531116, Near Veerraju Theater</t>
+  </si>
+  <si>
+    <t>39-3-15/3, Sec-3, Murali Nagar, Visakhapatnam - 530007</t>
+  </si>
+  <si>
+    <t>Kancharapalem, Visakhapatnam - 530008, Golla Kancharapalem</t>
   </si>
 </sst>
 </file>
@@ -979,12 +973,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="143.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="126.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1000,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1008,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1016,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1024,7 +1020,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1032,7 +1028,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1040,7 +1036,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1048,7 +1044,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1056,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1064,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1072,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1080,7 +1076,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1088,7 +1084,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1096,7 +1092,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1104,7 +1100,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1112,7 +1108,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1120,7 +1116,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1128,7 +1124,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1136,7 +1132,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1144,7 +1140,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1152,7 +1148,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1160,7 +1156,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1168,7 +1164,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1176,7 +1172,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1184,7 +1180,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1192,7 +1188,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1200,7 +1196,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1208,223 +1204,220 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1432,7 +1425,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1440,7 +1433,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1448,7 +1441,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1456,7 +1449,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1464,7 +1457,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1472,7 +1465,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1480,7 +1473,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1488,7 +1481,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1496,7 +1489,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1504,7 +1497,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1512,7 +1505,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1520,7 +1513,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1528,7 +1521,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1536,7 +1529,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1544,23 +1537,20 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1568,7 +1558,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1576,7 +1566,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1584,7 +1574,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1592,7 +1582,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1600,7 +1590,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1608,7 +1598,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1616,87 +1606,84 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>196</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1704,23 +1691,20 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>88</v>
       </c>
-      <c r="B91" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1728,7 +1712,7 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1736,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1744,55 +1728,55 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Vizag_Hospitals.xlsx
+++ b/Vizag_Hospitals.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$101</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="200">
   <si>
     <t>Hospital Name</t>
   </si>
@@ -27,6 +30,9 @@
     <t>Address</t>
   </si>
   <si>
+    <t>PIN CODE</t>
+  </si>
+  <si>
     <t>Mgr Hospitals</t>
   </si>
   <si>
@@ -604,6 +610,18 @@
   </si>
   <si>
     <t>Kancharapalem, Visakhapatnam - 530008, Golla Kancharapalem</t>
+  </si>
+  <si>
+    <t>Maharanipeta, Visakhapatnam - 530002, KGH Down, Opposite Indus Hospital, Jagadamba Junction</t>
+  </si>
+  <si>
+    <t>Visakhapatnam Ho, Visakhapatnam - 530001, Nr Post Office</t>
+  </si>
+  <si>
+    <t>Latha Hospital,, Daspalla Hills, Visakhapatnam - 530003, Waltair Uplands,</t>
+  </si>
+  <si>
+    <t>Maharanipeta, Visakhapatnam - 530002, Near Collector</t>
   </si>
 </sst>
 </file>
@@ -662,11 +680,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -971,815 +990,1130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="126.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <v>530017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2">
+        <v>530026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="2">
+        <v>530017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="2">
+        <v>530040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="2">
+        <v>530026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="2">
+        <v>530012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="2">
+        <v>530022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="2">
+        <v>530026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="2">
+        <v>530026</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="2">
+        <v>530017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18">
+        <v>530011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="2">
+        <v>530041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="2">
+        <v>530003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="2">
+        <v>530027</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="2">
+        <v>530016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="2">
+        <v>530026</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="2">
+        <v>530003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="2">
+        <v>530026</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="2">
+        <v>530011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="2">
+        <v>530016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="2">
+        <v>530026</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="2">
+        <v>530016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="2">
+        <v>530007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="2">
+        <v>530048</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="2">
+        <v>530040</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="2">
+        <v>530008</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="2">
+        <v>531116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="2">
+        <v>530001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="2">
+        <v>530026</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="2">
+        <v>530016</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="2">
+        <v>530041</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="2">
+        <v>530013</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="2">
+        <v>530013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="2">
+        <v>531116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="2">
+        <v>530013</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="2">
+        <v>530003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="2">
+        <v>530026</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="2">
+        <v>530027</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="2">
+        <v>530016</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="2">
+        <v>530026</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="2">
+        <v>531173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="2">
+        <v>530017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="2">
+        <v>531116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="2">
+        <v>530016</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="2">
+        <v>530013</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="2">
+        <v>530003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="2">
+        <v>530026</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="2">
+        <v>530018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="2">
+        <v>530012</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70" s="2">
+        <v>530013</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" s="2">
+        <v>530001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="2">
+        <v>530003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" s="2">
+        <v>531173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" s="2">
+        <v>531055</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="2">
+        <v>531055</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" s="2">
+        <v>531035</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="2">
+        <v>531036</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="2">
+        <v>531036</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" s="2">
+        <v>530001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>198</v>
+      </c>
+      <c r="C83">
+        <v>530003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>179</v>
+      </c>
+      <c r="C84" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85" s="2">
+        <v>531116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" s="2">
+        <v>531116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="2">
+        <v>530026</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" s="2">
+        <v>531055</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" s="2">
+        <v>530016</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90" s="2">
+        <v>530020</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="2">
+        <v>531036</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" s="2">
+        <v>531116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="2">
+        <v>531116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" s="2">
+        <v>530009</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" s="2">
+        <v>530027</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" s="2">
+        <v>530002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="2">
+        <v>531163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>193</v>
+      </c>
+      <c r="C99" s="2">
+        <v>531116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100" s="2">
+        <v>530007</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>20</v>
-      </c>
-      <c r="B80" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B81" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>79</v>
-      </c>
-      <c r="B82" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>81</v>
-      </c>
-      <c r="B84" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>84</v>
-      </c>
-      <c r="B87" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>85</v>
-      </c>
-      <c r="B88" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>86</v>
-      </c>
-      <c r="B89" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>87</v>
-      </c>
-      <c r="B90" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>89</v>
-      </c>
-      <c r="B92" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>90</v>
-      </c>
-      <c r="B93" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>91</v>
-      </c>
-      <c r="B94" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>92</v>
-      </c>
-      <c r="B95" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>93</v>
-      </c>
-      <c r="B96" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>94</v>
-      </c>
-      <c r="B97" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>95</v>
-      </c>
-      <c r="B98" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>97</v>
-      </c>
-      <c r="B100" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>98</v>
-      </c>
       <c r="B101" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="C101" s="2">
+        <v>530008</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C101"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
